--- a/courses/excel/onshore/coe/aibt/promotions/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
+++ b/courses/excel/onshore/coe/aibt/promotions/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Amadeus Workplace\Documents\Brochure APP\development\documents\new version\onshore\coe\aibt\promotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/promotions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104856B95C5AF65BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CB7DCE6-C713-4240-9B94-C959264648DD}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_8B0793BC9FF73F7123D28FD49D780576879605D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391A987C-D6AE-4550-A09F-43B46041B662}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">courses!$A$1:$H$11</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>vetCode</t>
   </si>
@@ -51,156 +48,205 @@
     <t>location</t>
   </si>
   <si>
+    <t>NSW/QLD/TAS</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC43015 / CHC52015</t>
+  </si>
+  <si>
+    <t>090851M/090852K/093815B</t>
+  </si>
+  <si>
+    <t>placementDuration</t>
+  </si>
+  <si>
+    <t>placementFee</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>locationDetail</t>
+  </si>
+  <si>
+    <t>durationMin</t>
+  </si>
+  <si>
+    <t>durationMax</t>
+  </si>
+  <si>
+    <t>tuitionDetail</t>
+  </si>
+  <si>
+    <t>tuitionHalf</t>
+  </si>
+  <si>
+    <t>tuitionHalfDetail</t>
+  </si>
+  <si>
+    <t>placementDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionValidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CHC33015</t>
   </si>
   <si>
-    <t>090851M</t>
-  </si>
-  <si>
-    <t>Ageing Support</t>
-  </si>
-  <si>
-    <t>NSW/QLD/TAS</t>
-  </si>
-  <si>
-    <t>Certificate III in Individual Support (Ageing, Disability)</t>
-  </si>
-  <si>
-    <t>42 wks Tuition + 10 wks Break (Placement will only commence  after the 35th week)</t>
-  </si>
-  <si>
     <t>CHC43015</t>
   </si>
   <si>
-    <t>090852K</t>
+    <t>CHC52015</t>
+  </si>
+  <si>
+    <t>** CHC30113</t>
+  </si>
+  <si>
+    <t>** CHC50113</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC43015 /</t>
+  </si>
+  <si>
+    <t>CHC33015 / CHC52015  /</t>
+  </si>
+  <si>
+    <t>**CHC30113 / **CHC50113</t>
   </si>
   <si>
     <t>Certificate IV in Ageing Support</t>
   </si>
   <si>
-    <t>31 wks Tuition + 4 wks Break</t>
-  </si>
-  <si>
-    <t>CHC52015</t>
-  </si>
-  <si>
-    <t>093815B</t>
-  </si>
-  <si>
-    <t>Community Services</t>
-  </si>
-  <si>
     <t>Diploma of Community Services</t>
   </si>
   <si>
-    <t>46 wks Tuition + 6 wks Break</t>
-  </si>
-  <si>
-    <t>CHC30113</t>
-  </si>
-  <si>
-    <t>093818K</t>
-  </si>
-  <si>
-    <t>Early Childhood</t>
-  </si>
-  <si>
-    <t>Certificate III in Early Childhood Education and Care</t>
-  </si>
-  <si>
-    <t>CHC50113</t>
-  </si>
-  <si>
-    <t>093819J</t>
-  </si>
-  <si>
-    <t>Diploma of Early Childhood Education and Care</t>
-  </si>
-  <si>
-    <t>49 wks Tuition + 3 wks Break</t>
-  </si>
-  <si>
-    <t>CHC33015 / CHC43015</t>
-  </si>
-  <si>
-    <t>090851M/090852K</t>
-  </si>
-  <si>
-    <t>Packages</t>
-  </si>
-  <si>
-    <t>Certificate III in Individual Support (Ageing) + Certificate IV in Ageing Support</t>
-  </si>
-  <si>
-    <t>CHC33015 / CHC52015</t>
-  </si>
-  <si>
-    <t>090851M/093815B</t>
-  </si>
-  <si>
-    <t>88 wks Tuition + 16 wks Break</t>
-  </si>
-  <si>
-    <t>CHC33015 / CHC43015 / CHC52015</t>
-  </si>
-  <si>
-    <t>090851M/090852K/093815B</t>
-  </si>
-  <si>
-    <t>Certificate III in Individual Support (Ageing) + Certificate IV in Ageing Support + Diploma of Community Services</t>
-  </si>
-  <si>
-    <t>CHC30113 / CHC50113</t>
-  </si>
-  <si>
-    <t>093818K/093819J</t>
-  </si>
-  <si>
-    <t>Certificate III in Early Childhood Education and Care + Diploma of Early Childhood Education and Care</t>
-  </si>
-  <si>
-    <t>92 wks Tuition + 12 wks Break</t>
-  </si>
-  <si>
-    <t>tuition</t>
-  </si>
-  <si>
-    <t>8500 (+ 500 Placement fee)</t>
-  </si>
-  <si>
-    <t>8000 (+ 500 Placement fee)</t>
-  </si>
-  <si>
-    <t>locationDetail</t>
-  </si>
-  <si>
-    <t>placementDuration</t>
-  </si>
-  <si>
-    <t>placementFee</t>
-  </si>
-  <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>Certificate III in Individual Support (Ageing) + Diploma of Community Services</t>
+    <t>Certificate III in Individual Support
+(Ageing) + Certificate IV in Ageing Support + Diploma of Community Services</t>
+  </si>
+  <si>
+    <t>Certificate III in  Individual Support
+ (Ageing)  + Certificate IV in Ageing Support</t>
+  </si>
+  <si>
+    <t>Certificate III in  Individual Support
+ (Ageing)  + Diploma of Community Services</t>
   </si>
   <si>
     <t>Certificate III in  Individual Support
  (Disability)  + Diploma of Community Services</t>
   </si>
   <si>
+    <t>Certificate III in Early Childhood Education and Care + Diploma of Early Childhood Education and Care</t>
+  </si>
+  <si>
+    <t>NSW / QLD / TAS</t>
+  </si>
+  <si>
     <t>NSW/QLD</t>
   </si>
   <si>
-    <t>15000 (NSW/TAS); 13000 (TAS)</t>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>Promotion valid until  31th Dec 2021</t>
+  </si>
+  <si>
+    <t>Certificate III in Individual Support (Ageing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate III in Individual Support (Disability) </t>
+  </si>
+  <si>
+    <t>total tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>8,500 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>15,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>12,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>14,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
+    <t>Placement will only commence after the 35th week</t>
+  </si>
+  <si>
+    <t>The intake date for this qualification is available until 6th December 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Placement will only commence after the 52nd week</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The intake date for these qualifications are available until 6th December 2021</t>
+  </si>
+  <si>
+    <t>Certificate III in Early Childhood Education and Care (** This course has been superseded)</t>
+  </si>
+  <si>
+    <t>Diploma of Early Childhood Education and Care (** This course has been superseded)</t>
+  </si>
+  <si>
+    <t>090851M</t>
+  </si>
+  <si>
+    <t>090852K</t>
+  </si>
+  <si>
+    <t>093815B</t>
+  </si>
+  <si>
+    <t>093818K</t>
+  </si>
+  <si>
+    <t>093819J</t>
+  </si>
+  <si>
+    <t>090851M/090852K</t>
+  </si>
+  <si>
+    <t>090851M/093815B</t>
+  </si>
+  <si>
+    <t>093818K/093819J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 wks tuition + 10 wks break
+</t>
+  </si>
+  <si>
+    <t>46 wks Tuition + 6 wks Break</t>
+  </si>
+  <si>
+    <t>49 wks Tuition + 3 wks Break</t>
+  </si>
+  <si>
+    <t>88 wks Tuition + 16 wks Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 wks tuition + 16 wks break
+</t>
+  </si>
+  <si>
+    <t>92 wks Tuition + 12 wks Break</t>
+  </si>
+  <si>
+    <t>15000 (NSW/TAS); 13000 (QLD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +260,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -246,6 +299,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,29 +582,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,319 +627,465 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="60">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>120</v>
+      </c>
+      <c r="P2" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="60">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+      <c r="P3" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="60">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>52</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="P4" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>52</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="90">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="2">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>120</v>
+      </c>
+      <c r="P6" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="90">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>240</v>
+      </c>
+      <c r="P7" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="75">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2">
-        <v>104</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>120</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="2">
         <v>104</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8">
         <v>220</v>
       </c>
-      <c r="K8">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="60">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="2">
         <v>104</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>120</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>220</v>
-      </c>
-      <c r="K9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="R9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="60">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>104</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10">
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
         <v>220</v>
       </c>
-      <c r="K10">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Q10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="60">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>104</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>220</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="90">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>104</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12">
         <v>240</v>
       </c>
+      <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H11" xr:uid="{D79A6E6B-6EC6-41D2-B680-A7EDC58968BB}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Packages"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/courses/excel/onshore/coe/aibt/promotions/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
+++ b/courses/excel/onshore/coe/aibt/promotions/DIANA_SCHOOL_OF_COMMUNITY_SERVICES.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/promotions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\coe\aibt\promotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_8B0793BC9FF73F7123D28FD49D780576879605D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391A987C-D6AE-4550-A09F-43B46041B662}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>vetCode</t>
   </si>
@@ -240,17 +239,29 @@
   </si>
   <si>
     <t>15000 (NSW/TAS); 13000 (QLD)</t>
+  </si>
+  <si>
+    <t>Ageing Support</t>
+  </si>
+  <si>
+    <t>Community Services</t>
+  </si>
+  <si>
+    <t>Early Childhood</t>
+  </si>
+  <si>
+    <t>Packages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -258,13 +269,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -581,36 +592,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,13 +677,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="60">
+    <row r="2" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
@@ -704,13 +718,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="60">
+    <row r="3" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
@@ -742,13 +759,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="60">
+    <row r="4" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
@@ -780,13 +800,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45">
+    <row r="5" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
@@ -818,13 +841,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="90">
+    <row r="6" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
@@ -856,13 +882,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="90">
+    <row r="7" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
@@ -894,13 +923,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="75">
+    <row r="8" spans="1:18" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
@@ -932,13 +964,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="60">
+    <row r="9" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
@@ -970,13 +1005,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="60">
+    <row r="10" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1008,13 +1046,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="60">
+    <row r="11" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1046,12 +1087,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="90">
+    <row r="12" spans="1:18" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
